--- a/EstadisticasNBA.xlsx
+++ b/EstadisticasNBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMINISTRADORGS2\Documents\NetBeansProjects\EstadisticasNBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmari\Documents\NetBeansProjects\EstadisticasNBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7133C1-E61A-4091-94AB-D974348CEE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F5BE5-AEFE-41A5-B9BD-BBBDA47FC8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="3525" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estadísticas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nombre Jugador</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Tiros Totales Realizados</t>
   </si>
   <si>
+    <t>Tiros Libres Realizados</t>
+  </si>
+  <si>
+    <t>Tiros Libres Encestados</t>
+  </si>
+  <si>
     <t>Tiros 2 Realizados</t>
   </si>
   <si>
@@ -49,7 +55,16 @@
     <t>% eFG</t>
   </si>
   <si>
+    <t>% TS</t>
+  </si>
+  <si>
     <t>Juan</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Rubén</t>
   </si>
 </sst>
 </file>
@@ -85,9 +100,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,27 +416,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -449,38 +464,131 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>56.25</v>
+      </c>
+      <c r="K2">
+        <v>40.625</v>
+      </c>
+      <c r="L2">
+        <v>0.69159836065573776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>80.555555555555557</v>
+      </c>
+      <c r="K3">
+        <v>59.722222222222221</v>
+      </c>
+      <c r="L3">
+        <v>0.99043715846994529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>62.5</v>
-      </c>
-      <c r="I2">
-        <v>46.875</v>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>73.076923076923066</v>
+      </c>
+      <c r="K4">
+        <v>53.846153846153847</v>
+      </c>
+      <c r="L4">
+        <v>0.44136191677175285</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>